--- a/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>6,303.56</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6,475.44</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5,887.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,746.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>5,803.89</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5,746.97</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5,887.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6,475.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6,303.56</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>6475.44</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>5746.97</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6043.444</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>35.65</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>41.52</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>36.20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>35.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>41.52</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>31.66</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>6,303.56</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6,511.09</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5,900.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5,783.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>5,845.41</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5,783.17</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5,900.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6,511.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6,303.56</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>6511.09</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>5783.17</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>6068.772</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>650.56</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>562.51</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>482.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>461.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>612.43</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>461.18</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>482.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>562.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>650.56</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>650.5599999999999</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>461.18</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>553.856</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>73.25</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>67.11</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>76.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>69.72</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>80.72</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>67.11</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>73.556</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>816.96</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,865.17</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,640.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,634.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1,244.95</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,634.99</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,640.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,865.17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>816.96</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1865.17</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>816.96</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1440.52</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>730.37</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>745.61</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>532.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>572.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>625.03</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>572.89</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>532.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>745.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>730.37</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>745.61</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>532.88</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>641.356</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4,035.95</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,257.08</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,167.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,047.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,289.75</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,047.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,167.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,257.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4,035.95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>4035.95</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>3047</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3359.483999999999</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2.26</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>14.94</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>5.804</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>4,050.89</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,261.15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,168.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,053.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,292.01</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,053.65</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,168.74</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,261.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4,050.89</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>4050.89</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3053.65</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3365.288</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2,051.64</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2,056.34</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,984.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,868.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,870.24</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,868.11</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,984.77</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2,056.34</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2,051.64</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>2056.34</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1868.11</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1966.22</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,999.25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,204.81</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,183.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,185.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,421.77</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,185.54</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,183.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,204.81</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,999.25</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1999.25</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1183.97</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1399.068</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,999.25</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,204.81</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,183.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,185.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,421.77</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,185.54</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,183.97</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,204.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,999.25</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1999.25</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1183.97</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1399.068</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>511.10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>313.24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>314.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>308.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>373.19</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>308.96</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>314.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>313.24</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>511.10</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>511.1</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>308.96</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>364.192</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,488.15</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>891.57</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>869.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>876.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,048.58</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>876.58</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>869.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>891.57</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,488.15</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1488.15</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>869.5</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1034.876</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,488.15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>891.57</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>869.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>876.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,048.58</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>876.58</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>869.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>891.57</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,488.15</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1488.15</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>869.5</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1034.876</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>119.97</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>119.99</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>120.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>120.52</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>120.13</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>120.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>119.99</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>119.97</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>120.52</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>119.97</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>120.138</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>17.45</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>14.49</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>25.19</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>17.318</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>17.33</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>14.52</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>14.40</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>14.76</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>25.01</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>17.204</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>17.45</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>14.49</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>25.19</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>17.318</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>17.33</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>14.52</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>14.40</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>14.76</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>25.01</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>17.204</v>
       </c>
     </row>
     <row r="29"/>
